--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1787288.490652774</v>
+        <v>1785036.410941566</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>93.52676208877617</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915361191</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>139.8935537436312</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335178</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>88.3646269539356</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067194</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>54.32369167158488</v>
+        <v>36.69369469525701</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358586</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.38559094376295</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>156.0100170058545</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>129.329091853685</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>38.21875275158362</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.5133406574299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>36.43062059490413</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>64.36993339924405</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340471</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746432</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756198</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514047</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4419,40 +4419,40 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.3683227675136</v>
+        <v>530.5487792519425</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396067</v>
+        <v>530.5487792519425</v>
       </c>
       <c r="D4" t="n">
         <v>380.4321398396067</v>
@@ -4480,22 +4480,22 @@
         <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,34 +4504,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1785.987928145431</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1564.221312714958</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1275.118445840601</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1020.433957634714</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>731.0167875977534</v>
+        <v>940.1867949801996</v>
       </c>
       <c r="X4" t="n">
-        <v>731.0167875977534</v>
+        <v>712.1972440821822</v>
       </c>
       <c r="Y4" t="n">
-        <v>731.0167875977534</v>
+        <v>712.1972440821822</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.87852028569</v>
+        <v>1935.366530930993</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1566.404013990581</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1208.138315383831</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>1935.366530930993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>825.3518203322459</v>
+        <v>843.1598980861129</v>
       </c>
       <c r="X7" t="n">
-        <v>825.3518203322459</v>
+        <v>615.1703471880955</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.691971481854</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>1887.813801820607</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4857,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.171619808316</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251695</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>460.171619808316</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>460.171619808316</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1055.185257670615</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>886.2490747427084</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>736.1324353303727</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2193417479796</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>441.3293942500692</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>274.1332949649491</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>132.4214638071472</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.833722500855</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.584050252739</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792906</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433897</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098196</v>
+        <v>741.8431516380872</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819127</v>
+        <v>741.8431516380872</v>
       </c>
       <c r="D37" t="n">
-        <v>664.302781469577</v>
+        <v>591.7265122257514</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871839</v>
+        <v>443.8134186433583</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892735</v>
+        <v>443.8134186433583</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3036411041534</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924454</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718567</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681607</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783589</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640059</v>
+        <v>923.4916164683269</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7494,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-8.059897243015978e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.0470835669819</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.0713126946649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>110.003342051665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864789023</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762566</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89260457060414</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>40.32043864788392</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970275</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>544823.954790754</v>
@@ -26326,34 +26326,34 @@
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820622</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820626</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26451,7 +26451,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975879.2784788009</v>
+        <v>-975879.2784788013</v>
       </c>
       <c r="C6" t="n">
         <v>352865.4672487922</v>
@@ -26528,40 +26528,40 @@
         <v>352865.4672487918</v>
       </c>
       <c r="E6" t="n">
-        <v>104072.2110826368</v>
+        <v>104037.4731572016</v>
       </c>
       <c r="F6" t="n">
-        <v>429484.6728899921</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="G6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.9349645561</v>
       </c>
       <c r="H6" t="n">
-        <v>429484.6728899918</v>
+        <v>429449.9349645558</v>
       </c>
       <c r="I6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.934964556</v>
       </c>
       <c r="J6" t="n">
-        <v>211953.4704927142</v>
+        <v>211918.7325672786</v>
       </c>
       <c r="K6" t="n">
-        <v>429484.6728899916</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="L6" t="n">
-        <v>429484.6728899916</v>
+        <v>429449.934964556</v>
       </c>
       <c r="M6" t="n">
-        <v>344429.64495448</v>
+        <v>344394.9070290443</v>
       </c>
       <c r="N6" t="n">
-        <v>429484.6728899915</v>
+        <v>429449.9349645564</v>
       </c>
       <c r="O6" t="n">
-        <v>429484.6728899918</v>
+        <v>429449.9349645561</v>
       </c>
       <c r="P6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.9349645561</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,20 +26963,20 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>261.1562795319068</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.2767095024417</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>49.87547158781069</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903102</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>276.9082648170719</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.702898665542421</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>232.1993066650061</v>
+        <v>249.829303641334</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762196</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.5447791284988</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>33.75900832558739</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>96.38056353535217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-2.53354608527818e-12</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31051,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31124,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31203,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31230,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837926</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.3926848685848</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190042</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533187</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,13 +32336,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4567226539314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004593</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942258</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745598</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088742</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
